--- a/files/New Encoder Decoder 03042023.xlsx
+++ b/files/New Encoder Decoder 03042023.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nasa-my.sharepoint.com/personal/ebray_ndc_nasa_gov/Documents/Python Programs/SORC Poses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{B596D385-443D-8345-B3C2-48081927AFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C85362-2C77-47AF-BF69-D8FCA43349BD}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{B596D385-443D-8345-B3C2-48081927AFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F8375E-0DB5-4475-947C-3412CCF3DDD3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740DFEC9-E8F8-904E-863B-DF785590590D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Encoder Mapping Mar 4" sheetId="1" r:id="rId1"/>
-    <sheet name="Sample PR5 Pose" sheetId="2" r:id="rId2"/>
+    <sheet name="Encoder Mapping Mar 4" sheetId="3" r:id="rId1"/>
+    <sheet name="Encoder Mapping Mar 4 (old)" sheetId="1" r:id="rId2"/>
+    <sheet name="Sample PR5 Pose" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="42">
   <si>
     <t>Calc 5dof from encoder values</t>
   </si>
@@ -371,8 +372,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -505,8 +507,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4659C690-98B4-4029-9018-37D1861425A1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,6 +525,147 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82316</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129352</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0863A2DC-AF81-4B2F-9743-39B90DE4F104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11857121" y="4139706"/>
+          <a:ext cx="1287191" cy="260844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82316</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129352</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB562D5-51DC-4F13-8C19-95B13BD8993D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13095371" y="4139706"/>
+          <a:ext cx="258491" cy="260844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -662,7 +806,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1167,37 +1311,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1050377A-3395-A44E-892F-AB99511D4D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DEC0B0-140B-496A-A15E-11F8F15AC581}">
   <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:M35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.25" style="34" customWidth="1"/>
-    <col min="7" max="7" width="3.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="3" customWidth="1"/>
-    <col min="9" max="13" width="16.25" style="3" customWidth="1"/>
-    <col min="14" max="15" width="2.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.19921875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="3.19921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.19921875" style="3" customWidth="1"/>
+    <col min="9" max="13" width="16.19921875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="2.69921875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.69921875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.69921875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" style="3" customWidth="1"/>
     <col min="20" max="21" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
     <col min="29" max="33" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>41</v>
       </c>
@@ -1222,7 +1366,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="39">
         <v>44989</v>
       </c>
@@ -1242,7 +1386,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1267,7 +1411,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1316,42 +1460,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <f>I17</f>
-        <v>1.31625195187138</v>
+        <v>111.1313</v>
       </c>
       <c r="C5" s="10">
         <f>B5</f>
-        <v>1.31625195187138</v>
+        <v>111.1313</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" ref="D5:F5" si="0">C5</f>
-        <v>1.31625195187138</v>
+        <v>111.1313</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>1.31625195187138</v>
+        <v>111.1313</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>1.31625195187138</v>
+        <v>111.1313</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="11">
-        <v>1.00067994953452</v>
+        <v>1.00066331775217</v>
       </c>
       <c r="J5" s="11">
-        <v>-1.96956116600402E-4</v>
+        <v>-1.8632702959586701E-4</v>
       </c>
       <c r="K5" s="11">
-        <v>-3.6752218447358399E-4</v>
+        <v>-3.7236500184224298E-4</v>
       </c>
       <c r="L5" s="11">
         <v>0</v>
@@ -1367,15 +1511,15 @@
       </c>
       <c r="Q5" s="14">
         <f>B5*I5</f>
-        <v>1.3171469367733659</v>
+        <v>111.20501536411173</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ref="R5:U15" si="2">C5*J5</f>
-        <v>-2.5924387290828622E-4</v>
+        <v>-2.0706765024127174E-2</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="2"/>
-        <v>-4.8375179266938834E-4</v>
+        <v>-4.1381406729230859E-2</v>
       </c>
       <c r="T5" s="12">
         <f t="shared" si="2"/>
@@ -1386,42 +1530,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10">
         <f>J17</f>
-        <v>-0.58668462692516599</v>
+        <v>-45.02675</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:F15" si="3">B6</f>
-        <v>-0.58668462692516599</v>
+        <v>-45.02675</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="3"/>
-        <v>-0.58668462692516599</v>
+        <v>-45.02675</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="3"/>
-        <v>-0.58668462692516599</v>
+        <v>-45.02675</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="3"/>
-        <v>-0.58668462692516599</v>
+        <v>-45.02675</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="11">
-        <v>2.7084373269265002E-5</v>
+        <v>3.8836216829225397E-5</v>
       </c>
       <c r="J6" s="11">
-        <v>1.0005916409817901</v>
+        <v>1.00058848867175</v>
       </c>
       <c r="K6" s="11">
-        <v>-5.80110385411819E-4</v>
+        <v>-5.8617491854348201E-4</v>
       </c>
       <c r="L6" s="11">
         <v>0</v>
@@ -1437,15 +1581,15 @@
       </c>
       <c r="Q6" s="14">
         <f t="shared" ref="Q6:Q15" si="4">B6*I6</f>
-        <v>-1.5889985426980677E-5</v>
+        <v>-1.7486686261153246E-3</v>
       </c>
       <c r="R6" s="10">
         <f t="shared" si="2"/>
-        <v>-0.5870317335938412</v>
+        <v>-45.053247732300719</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="2"/>
-        <v>3.4034184504074726E-4</v>
+        <v>2.6393551513527728E-2</v>
       </c>
       <c r="T6" s="12">
         <f t="shared" si="2"/>
@@ -1456,42 +1600,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="10">
         <f>K17</f>
-        <v>0.63350234574160602</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="3"/>
-        <v>0.63350234574160602</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="3"/>
-        <v>0.63350234574160602</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="3"/>
-        <v>0.63350234574160602</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="3"/>
-        <v>0.63350234574160602</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="11">
-        <v>8.2864622450312198E-4</v>
+        <v>8.9967410285974497E-4</v>
       </c>
       <c r="J7" s="11">
-        <v>-1.19574861495263E-3</v>
+        <v>-1.1899273058784399E-3</v>
       </c>
       <c r="K7" s="11">
-        <v>0.99738821548912804</v>
+        <v>0.99729741787917103</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>
@@ -1507,15 +1651,15 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="4"/>
-        <v>5.2494932701265332E-4</v>
+        <v>1.9868762757195752E-2</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" si="2"/>
-        <v>-7.5750955248976755E-4</v>
+        <v>-2.6278830593941815E-2</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" si="2"/>
-        <v>0.63184777412739701</v>
+        <v>22.024715095410762</v>
       </c>
       <c r="T7" s="12">
         <f t="shared" si="2"/>
@@ -1526,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -1554,13 +1698,13 @@
         <v>15</v>
       </c>
       <c r="I8" s="11">
-        <v>2.7345691447084701E-2</v>
+        <v>2.60674605557022E-2</v>
       </c>
       <c r="J8" s="11">
-        <v>-3.59554108959537E-2</v>
+        <v>-3.5320348950670502E-2</v>
       </c>
       <c r="K8" s="11">
-        <v>-5.2696635325035997E-2</v>
+        <v>-5.2673025047074801E-2</v>
       </c>
       <c r="L8" s="11">
         <v>0</v>
@@ -1576,15 +1720,15 @@
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="4"/>
-        <v>2.7345691447084701E-2</v>
+        <v>2.60674605557022E-2</v>
       </c>
       <c r="R8" s="10">
         <f t="shared" si="2"/>
-        <v>-3.59554108959537E-2</v>
+        <v>-3.5320348950670502E-2</v>
       </c>
       <c r="S8" s="10">
         <f t="shared" si="2"/>
-        <v>-5.2696635325035997E-2</v>
+        <v>-5.2673025047074801E-2</v>
       </c>
       <c r="T8" s="12">
         <f t="shared" si="2"/>
@@ -1595,29 +1739,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10">
         <f>L17</f>
-        <v>-7.2761455210857098E-2</v>
+        <v>-4.8567</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="3"/>
-        <v>-7.2761455210857098E-2</v>
+        <v>-4.8567</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="3"/>
-        <v>-7.2761455210857098E-2</v>
+        <v>-4.8567</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="3"/>
-        <v>-7.2761455210857098E-2</v>
+        <v>-4.8567</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="3"/>
-        <v>-7.2761455210857098E-2</v>
+        <v>-4.8567</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
@@ -1633,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="11">
-        <v>0.999499880161974</v>
+        <v>0.99962484791477801</v>
       </c>
       <c r="M9" s="11">
-        <v>1.0709441466238701E-3</v>
+        <v>1.17597875821841E-3</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1658,36 +1802,36 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" si="2"/>
-        <v>-7.2725065763662514E-2</v>
+        <v>-4.8548779988677024</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="2"/>
-        <v>-7.7923454557902297E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-5.7113760350393514E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13">
         <f>M17</f>
-        <v>9.6616922799217901E-3</v>
+        <v>-10.5982</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="3"/>
-        <v>9.6616922799217901E-3</v>
+        <v>-10.5982</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="3"/>
-        <v>9.6616922799217901E-3</v>
+        <v>-10.5982</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>9.6616922799217901E-3</v>
+        <v>-10.5982</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="3"/>
-        <v>9.6616922799217901E-3</v>
+        <v>-10.5982</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="6" t="s">
@@ -1703,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="11">
-        <v>-5.6497543228241701E-4</v>
+        <v>-6.0253426392082503E-4</v>
       </c>
       <c r="M10" s="11">
-        <v>0.99988764643683603</v>
+        <v>0.99986454759913901</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1728,14 +1872,14 @@
       </c>
       <c r="T10" s="14">
         <f t="shared" si="2"/>
-        <v>-5.4586187724285043E-6</v>
+        <v>6.3857786358856878E-3</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="2"/>
-        <v>9.660606754367947E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-10.596764448365196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -1772,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <v>-2.1103707928646601E-3</v>
+        <v>-1.8553285171104101E-3</v>
       </c>
       <c r="M11" s="11">
-        <v>-7.9510768457993796E-4</v>
+        <v>-7.9680998688065705E-4</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1797,36 +1941,36 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" si="2"/>
-        <v>-2.1103707928646601E-3</v>
+        <v>-1.8553285171104101E-3</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="2"/>
-        <v>-7.9510768457993796E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-7.9680998688065705E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="13">
         <f>B9^2</f>
-        <v>5.2942293644015637E-3</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" si="3"/>
-        <v>5.2942293644015637E-3</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>5.2942293644015637E-3</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>5.2942293644015637E-3</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="3"/>
-        <v>5.2942293644015637E-3</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="6" t="s">
@@ -1842,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <v>4.8430184539804799E-5</v>
+        <v>2.9537838143203701E-5</v>
       </c>
       <c r="M12" s="11">
-        <v>4.6050196379807497E-5</v>
+        <v>3.6135937429535898E-5</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1867,36 +2011,36 @@
       </c>
       <c r="T12" s="14">
         <f t="shared" si="2"/>
-        <v>2.5640050511402119E-7</v>
+        <v>6.967247877779901E-4</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="2"/>
-        <v>2.4380030191043546E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.5235768490203492E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="13">
         <f>B10^2</f>
-        <v>9.3348297711900313E-5</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" si="3"/>
-        <v>9.3348297711900313E-5</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="3"/>
-        <v>9.3348297711900313E-5</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="3"/>
-        <v>9.3348297711900313E-5</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="3"/>
-        <v>9.3348297711900313E-5</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="6" t="s">
@@ -1912,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>-5.8950058558938299E-6</v>
+        <v>-2.7328062586580001E-6</v>
       </c>
       <c r="M13" s="11">
-        <v>-2.5854461880693001E-6</v>
+        <v>1.9715675593999601E-6</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1937,36 +2081,36 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" si="2"/>
-        <v>-5.5028876164937294E-10</v>
+        <v>-3.0695383619027479E-4</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="2"/>
-        <v>-2.4134700048199083E-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2145010234399172E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="13">
         <f>B9^3</f>
-        <v>-3.8521583277390881E-4</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" si="3"/>
-        <v>-3.8521583277390881E-4</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="3"/>
-        <v>-3.8521583277390881E-4</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="3"/>
-        <v>-3.8521583277390881E-4</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="3"/>
-        <v>-3.8521583277390881E-4</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="6" t="s">
@@ -1982,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <v>1.25332172664855E-5</v>
+        <v>8.8315824157293806E-6</v>
       </c>
       <c r="M14" s="11">
-        <v>-1.4108201400428899E-5</v>
+        <v>-1.62513550779021E-5</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2007,36 +2151,36 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" si="2"/>
-        <v>-4.8279937266455447E-9</v>
+        <v>-1.0117247153009423E-3</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="2"/>
-        <v>5.4347025514082451E-9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.8617159208253987E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="13">
         <f>B10^3</f>
-        <v>9.0190252734690812E-7</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" si="3"/>
-        <v>9.0190252734690812E-7</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="3"/>
-        <v>9.0190252734690812E-7</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="3"/>
-        <v>9.0190252734690812E-7</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="3"/>
-        <v>9.0190252734690812E-7</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="6" t="s">
@@ -2052,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>-3.1822433005853499E-7</v>
+        <v>-1.5064056793324099E-7</v>
       </c>
       <c r="M15" s="11">
-        <v>1.3520844857546499E-6</v>
+        <v>1.6828188403057299E-6</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2077,14 +2221,14 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" si="2"/>
-        <v>-2.8700732754306938E-13</v>
+        <v>1.7932394191674735E-4</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="2"/>
-        <v>1.2194484148886633E-12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.0032432970455037E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2127,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2139,19 +2283,19 @@
         <v>27</v>
       </c>
       <c r="I17" s="41">
-        <v>1.31625195187138</v>
+        <v>111.1313</v>
       </c>
       <c r="J17" s="41">
-        <v>-0.58668462692516599</v>
+        <v>-45.02675</v>
       </c>
       <c r="K17" s="41">
-        <v>0.63350234574160602</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="L17" s="41">
-        <v>-7.2761455210857098E-2</v>
+        <v>-4.8567</v>
       </c>
       <c r="M17" s="41">
-        <v>9.6616922799217901E-3</v>
+        <v>-10.5982</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="1"/>
@@ -2160,26 +2304,26 @@
       </c>
       <c r="Q17" s="40">
         <f>SUM(Q5:Q15)</f>
-        <v>1.3450016875620363</v>
+        <v>111.24920291879852</v>
       </c>
       <c r="R17" s="21">
         <f t="shared" ref="R17:U17" si="6">SUM(R5:R15)</f>
-        <v>-0.62400389791519295</v>
+        <v>-45.135553676869463</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="6"/>
-        <v>0.5790077288547324</v>
+        <v>21.957054215147984</v>
       </c>
       <c r="T17" s="22">
         <f t="shared" si="6"/>
-        <v>-7.4840644153363972E-2</v>
+        <v>-4.8507901785707244</v>
       </c>
       <c r="U17" s="22">
         <f t="shared" si="6"/>
-        <v>8.7878246101070166E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-10.602340353976089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2192,23 +2336,23 @@
       </c>
       <c r="I18" s="43">
         <f>Q17</f>
-        <v>1.3450016875620363</v>
+        <v>111.24920291879852</v>
       </c>
       <c r="J18" s="43">
         <f>R17</f>
-        <v>-0.62400389791519295</v>
+        <v>-45.135553676869463</v>
       </c>
       <c r="K18" s="43">
         <f>S17</f>
-        <v>0.5790077288547324</v>
+        <v>21.957054215147984</v>
       </c>
       <c r="L18" s="43">
         <f>T17</f>
-        <v>-7.4840644153363972E-2</v>
+        <v>-4.8507901785707244</v>
       </c>
       <c r="M18" s="43">
         <f>U17</f>
-        <v>8.7878246101070166E-3</v>
+        <v>-10.602340353976089</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2219,7 +2363,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2242,7 +2386,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2267,7 +2411,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
@@ -2345,13 +2489,13 @@
         <v>10</v>
       </c>
       <c r="I22" s="27">
-        <v>0.99932019271382799</v>
+        <v>0.99933677205935001</v>
       </c>
       <c r="J22" s="27">
-        <v>1.9714708124231699E-4</v>
+        <v>1.86537078472866E-4</v>
       </c>
       <c r="K22" s="27">
-        <v>3.6833992066514799E-4</v>
+        <v>3.7323218028949702E-4</v>
       </c>
       <c r="L22" s="27">
         <v>0</v>
@@ -2367,15 +2511,15 @@
       </c>
       <c r="Q22" s="10">
         <f>B22*I22</f>
-        <v>1.344087345614918</v>
+        <v>1.3441096448626237</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:U32" si="9">C22*J22</f>
-        <v>2.6516315696884624E-4</v>
+        <v>2.5089268533889675E-4</v>
       </c>
       <c r="S22" s="10">
         <f t="shared" si="9"/>
-        <v>4.9541781489109064E-4</v>
+        <v>5.0199791234183165E-4</v>
       </c>
       <c r="T22" s="12">
         <f t="shared" si="9"/>
@@ -2386,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -2415,13 +2559,13 @@
         <v>12</v>
       </c>
       <c r="I23" s="27">
-        <v>-2.75293116845278E-5</v>
+        <v>-3.9304859810406001E-5</v>
       </c>
       <c r="J23" s="27">
-        <v>0.99940932680981598</v>
+        <v>0.99941247091479601</v>
       </c>
       <c r="K23" s="27">
-        <v>5.8133177011787196E-4</v>
+        <v>5.8746075526166499E-4</v>
       </c>
       <c r="L23" s="27">
         <v>0</v>
@@ -2437,15 +2581,15 @@
       </c>
       <c r="Q23" s="10">
         <f t="shared" ref="Q23:Q32" si="11">B23*I23</f>
-        <v>1.7178397798067612E-5</v>
+        <v>2.4526385728703558E-5</v>
       </c>
       <c r="R23" s="10">
         <f t="shared" si="9"/>
-        <v>-0.62363531554212415</v>
+        <v>-0.62363727747588715</v>
       </c>
       <c r="S23" s="10">
         <f t="shared" si="9"/>
-        <v>-3.6275329053549101E-4</v>
+        <v>-3.6657780115548216E-4</v>
       </c>
       <c r="T23" s="12">
         <f t="shared" si="9"/>
@@ -2456,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
@@ -2485,13 +2629,13 @@
         <v>14</v>
       </c>
       <c r="I24" s="27">
-        <v>-8.3039371012029201E-4</v>
+        <v>-9.0180214664585198E-4</v>
       </c>
       <c r="J24" s="27">
-        <v>1.1983153733605601E-3</v>
+        <v>1.1926896257051401E-3</v>
       </c>
       <c r="K24" s="27">
-        <v>1.00261849124331</v>
+        <v>1.0027096545496601</v>
       </c>
       <c r="L24" s="27">
         <v>0</v>
@@ -2507,15 +2651,15 @@
       </c>
       <c r="Q24" s="10">
         <f t="shared" si="11"/>
-        <v>-4.8080437615200531E-4</v>
+        <v>-5.2215041280573706E-4</v>
       </c>
       <c r="R24" s="10">
         <f t="shared" si="9"/>
-        <v>6.938338627812086E-4</v>
+        <v>6.9057651140813398E-4</v>
       </c>
       <c r="S24" s="10">
         <f t="shared" si="9"/>
-        <v>0.58052385552254737</v>
+        <v>0.58057663978151197</v>
       </c>
       <c r="T24" s="12">
         <f t="shared" si="9"/>
@@ -2526,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -2554,13 +2698,13 @@
         <v>15</v>
       </c>
       <c r="I25" s="27">
-        <v>-2.7370087661051101E-2</v>
+        <v>-2.6095204978146401E-2</v>
       </c>
       <c r="J25" s="27">
-        <v>3.59878055787127E-2</v>
+        <v>3.5351935327951597E-2</v>
       </c>
       <c r="K25" s="27">
-        <v>5.2853573142985798E-2</v>
+        <v>5.2836155779479498E-2</v>
       </c>
       <c r="L25" s="27">
         <v>0</v>
@@ -2576,15 +2720,15 @@
       </c>
       <c r="Q25" s="10">
         <f t="shared" si="11"/>
-        <v>-2.7370087661051101E-2</v>
+        <v>-2.6095204978146401E-2</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" si="9"/>
-        <v>3.59878055787127E-2</v>
+        <v>3.5351935327951597E-2</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" si="9"/>
-        <v>5.2853573142985798E-2</v>
+        <v>5.2836155779479498E-2</v>
       </c>
       <c r="T25" s="12">
         <f t="shared" si="9"/>
@@ -2595,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -2633,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="27">
-        <v>1.00049845418409</v>
+        <v>1.00037131235778</v>
       </c>
       <c r="M26" s="27">
-        <v>-1.0736333719941699E-3</v>
+        <v>-1.1794083606410401E-3</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2658,14 +2802,14 @@
       </c>
       <c r="T26" s="12">
         <f t="shared" si="9"/>
-        <v>-7.487794878558221E-2</v>
+        <v>-7.486843340940233E-2</v>
       </c>
       <c r="U26" s="12">
         <f t="shared" si="9"/>
-        <v>8.0351413144591919E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.8267681430238449E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -2703,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="27">
-        <v>5.6529191971963801E-4</v>
+        <v>6.0267095615451995E-4</v>
       </c>
       <c r="M27" s="27">
-        <v>1.0001119110157899</v>
+        <v>1.0001347314443001</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2728,14 +2872,14 @@
       </c>
       <c r="T27" s="12">
         <f t="shared" si="9"/>
-        <v>4.9676862440068749E-6</v>
+        <v>5.2961666602914174E-6</v>
       </c>
       <c r="U27" s="12">
         <f t="shared" si="9"/>
-        <v>8.7888080644857175E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.7890086064089917E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>1</v>
       </c>
@@ -2772,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="27">
-        <v>2.1111441507004002E-3</v>
+        <v>1.85482743449731E-3</v>
       </c>
       <c r="M28" s="27">
-        <v>7.9062110923943405E-4</v>
+        <v>7.9211360365687297E-4</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2797,14 +2941,14 @@
       </c>
       <c r="T28" s="12">
         <f t="shared" si="9"/>
-        <v>2.1111441507004002E-3</v>
+        <v>1.85482743449731E-3</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" si="9"/>
-        <v>7.9062110923943405E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7.9211360365687297E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>19</v>
       </c>
@@ -2842,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="27">
-        <v>-4.8145846432834603E-5</v>
+        <v>-2.9379072670801601E-5</v>
       </c>
       <c r="M29" s="27">
-        <v>-4.5971991239333301E-5</v>
+        <v>-3.6134655073518003E-5</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2867,14 +3011,14 @@
       </c>
       <c r="T29" s="12">
         <f t="shared" si="9"/>
-        <v>-2.6967076049603489E-7</v>
+        <v>-1.6455577078400308E-7</v>
       </c>
       <c r="U29" s="12">
         <f t="shared" si="9"/>
-        <v>-2.5749473230931359E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.0239461211947786E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
@@ -2912,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="27">
-        <v>5.8110957954125104E-6</v>
+        <v>2.6904131055019201E-6</v>
       </c>
       <c r="M30" s="27">
-        <v>2.5901158407762302E-6</v>
+        <v>-1.9395585104272202E-6</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2937,14 +3081,14 @@
       </c>
       <c r="T30" s="12">
         <f t="shared" si="9"/>
-        <v>4.4876687835081992E-10</v>
+        <v>2.077694695350526E-10</v>
       </c>
       <c r="U30" s="12">
         <f t="shared" si="9"/>
-        <v>2.0002392687275367E-10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.4978407666077762E-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>23</v>
       </c>
@@ -2982,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="27">
-        <v>-1.2525673587615299E-5</v>
+        <v>-8.7253532330589802E-6</v>
       </c>
       <c r="M31" s="27">
-        <v>1.4212518000297801E-5</v>
+        <v>1.63940532363896E-5</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3007,14 +3151,14 @@
       </c>
       <c r="T31" s="12">
         <f t="shared" si="9"/>
-        <v>5.2506568986955378E-9</v>
+        <v>3.6575946056916861E-9</v>
       </c>
       <c r="U31" s="12">
         <f t="shared" si="9"/>
-        <v>-5.9577678728498345E-9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-6.8722490747596766E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -3052,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="27">
-        <v>3.14239259613929E-7</v>
+        <v>1.4856383531969799E-7</v>
       </c>
       <c r="M32" s="27">
-        <v>-1.34808059611239E-6</v>
+        <v>-1.67680080352963E-6</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3077,14 +3221,14 @@
       </c>
       <c r="T32" s="12">
         <f t="shared" si="9"/>
-        <v>2.1325763299546801E-13</v>
+        <v>1.0082244945438047E-13</v>
       </c>
       <c r="U32" s="12">
         <f t="shared" si="9"/>
-        <v>-9.1487129064411962E-13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.1379563801320041E-12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3129,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3162,26 +3306,26 @@
       </c>
       <c r="Q34" s="30">
         <f>SUM(Q22:Q32)</f>
-        <v>1.3162536319755129</v>
+        <v>1.3175168158574004</v>
       </c>
       <c r="R34" s="30">
         <f t="shared" ref="R34:U34" si="12">SUM(R22:R32)</f>
-        <v>-0.58668851294366131</v>
+        <v>-0.58734387295118862</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="12"/>
-        <v>0.63351009318988871</v>
+        <v>0.63354821567217789</v>
       </c>
       <c r="T34" s="31">
         <f t="shared" si="12"/>
-        <v>-7.2762100919761263E-2</v>
+        <v>-7.3008470498550623E-2</v>
       </c>
       <c r="U34" s="31">
         <f t="shared" si="12"/>
-        <v>9.6595173334786174E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+        <v>9.6691804737128739E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3194,23 +3338,23 @@
       </c>
       <c r="I35" s="44">
         <f>Q34</f>
-        <v>1.3162536319755129</v>
+        <v>1.3175168158574004</v>
       </c>
       <c r="J35" s="44">
         <f>R34</f>
-        <v>-0.58668851294366131</v>
+        <v>-0.58734387295118862</v>
       </c>
       <c r="K35" s="44">
         <f>S34</f>
-        <v>0.63351009318988871</v>
+        <v>0.63354821567217789</v>
       </c>
       <c r="L35" s="44">
         <f>T34</f>
-        <v>-7.2762100919761263E-2</v>
+        <v>-7.3008470498550623E-2</v>
       </c>
       <c r="M35" s="44">
         <f>U34</f>
-        <v>9.6595173334786174E-3</v>
+        <v>9.6691804737128739E-3</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3221,7 +3365,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3244,7 +3388,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3267,7 +3411,7 @@
       <c r="T37"/>
       <c r="U37"/>
     </row>
-    <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -3283,7 +3427,7 @@
       <c r="T38"/>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -3299,7 +3443,7 @@
       <c r="T39"/>
       <c r="U39"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -3315,7 +3459,7 @@
       <c r="T40"/>
       <c r="U40"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -3331,7 +3475,7 @@
       <c r="T41"/>
       <c r="U41"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -3347,7 +3491,7 @@
       <c r="T42"/>
       <c r="U42"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -3363,7 +3507,7 @@
       <c r="T43"/>
       <c r="U43"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -3379,7 +3523,7 @@
       <c r="T44"/>
       <c r="U44"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -3395,7 +3539,7 @@
       <c r="T45"/>
       <c r="U45"/>
     </row>
-    <row r="46" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
@@ -3411,7 +3555,7 @@
       <c r="T46"/>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G47" s="35"/>
       <c r="H47"/>
       <c r="I47"/>
@@ -3428,7 +3572,7 @@
       <c r="T47"/>
       <c r="U47"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G48" s="35"/>
       <c r="H48"/>
       <c r="I48"/>
@@ -3445,7 +3589,7 @@
       <c r="T48"/>
       <c r="U48"/>
     </row>
-    <row r="49" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G49" s="35"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -3462,7 +3606,7 @@
       <c r="T49"/>
       <c r="U49"/>
     </row>
-    <row r="50" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G50" s="35"/>
       <c r="H50"/>
       <c r="I50"/>
@@ -3479,7 +3623,7 @@
       <c r="T50"/>
       <c r="U50"/>
     </row>
-    <row r="51" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G51" s="35"/>
       <c r="H51"/>
       <c r="I51"/>
@@ -3496,7 +3640,7 @@
       <c r="T51"/>
       <c r="U51"/>
     </row>
-    <row r="52" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
@@ -3512,7 +3656,7 @@
       <c r="T52"/>
       <c r="U52"/>
     </row>
-    <row r="53" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
@@ -3528,7 +3672,7 @@
       <c r="T53"/>
       <c r="U53"/>
     </row>
-    <row r="54" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
@@ -3544,7 +3688,7 @@
       <c r="T54"/>
       <c r="U54"/>
     </row>
-    <row r="55" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
@@ -3560,7 +3704,7 @@
       <c r="T55"/>
       <c r="U55"/>
     </row>
-    <row r="56" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
@@ -3576,7 +3720,7 @@
       <c r="T56"/>
       <c r="U56"/>
     </row>
-    <row r="57" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
@@ -3592,7 +3736,7 @@
       <c r="T57"/>
       <c r="U57"/>
     </row>
-    <row r="58" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
@@ -3608,7 +3752,7 @@
       <c r="T58"/>
       <c r="U58"/>
     </row>
-    <row r="59" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
@@ -3624,7 +3768,7 @@
       <c r="T59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
@@ -3640,7 +3784,7 @@
       <c r="T60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
@@ -3656,7 +3800,7 @@
       <c r="T61"/>
       <c r="U61"/>
     </row>
-    <row r="62" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
@@ -3672,7 +3816,7 @@
       <c r="T62"/>
       <c r="U62"/>
     </row>
-    <row r="63" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
@@ -3688,7 +3832,7 @@
       <c r="T63"/>
       <c r="U63"/>
     </row>
-    <row r="64" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
@@ -3704,7 +3848,7 @@
       <c r="T64"/>
       <c r="U64"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
@@ -3720,7 +3864,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
@@ -3736,7 +3880,7 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
@@ -3752,7 +3896,7 @@
       <c r="T67"/>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
@@ -3768,7 +3912,7 @@
       <c r="T68"/>
       <c r="U68"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
@@ -3784,7 +3928,7 @@
       <c r="T69"/>
       <c r="U69"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
@@ -3800,7 +3944,7 @@
       <c r="T70"/>
       <c r="U70"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
@@ -3816,7 +3960,7 @@
       <c r="T71"/>
       <c r="U71"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
@@ -3832,7 +3976,7 @@
       <c r="T72"/>
       <c r="U72"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
@@ -3848,7 +3992,7 @@
       <c r="T73"/>
       <c r="U73"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
@@ -3864,7 +4008,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
@@ -3880,7 +4024,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
@@ -3896,7 +4040,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
@@ -3906,7 +4050,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
@@ -3916,7 +4060,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
@@ -3932,7 +4076,7 @@
       <c r="T79"/>
       <c r="U79"/>
     </row>
-    <row r="80" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -3942,7 +4086,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
@@ -3950,7 +4094,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
@@ -3958,7 +4102,7 @@
       <c r="F82" s="34"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
@@ -3966,7 +4110,7 @@
       <c r="F83" s="34"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
@@ -3974,7 +4118,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
@@ -3982,7 +4126,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
@@ -3990,7 +4134,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
@@ -3998,7 +4142,7 @@
       <c r="F87" s="34"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
@@ -4006,7 +4150,7 @@
       <c r="F88" s="34"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
@@ -4014,7 +4158,7 @@
       <c r="F89" s="34"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
@@ -4022,7 +4166,7 @@
       <c r="F90" s="34"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
@@ -4030,7 +4174,7 @@
       <c r="F91" s="34"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
@@ -4038,7 +4182,7 @@
       <c r="F92" s="34"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
@@ -4046,7 +4190,7 @@
       <c r="F93" s="34"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
@@ -4054,7 +4198,7 @@
       <c r="F94" s="34"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
@@ -4062,7 +4206,7 @@
       <c r="F95" s="34"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
@@ -4070,7 +4214,7 @@
       <c r="F96" s="34"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -4080,7 +4224,7 @@
       <c r="H97"/>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -4090,7 +4234,7 @@
       <c r="H98"/>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -4100,7 +4244,7 @@
       <c r="H99"/>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -4110,7 +4254,7 @@
       <c r="H100"/>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -4120,7 +4264,7 @@
       <c r="H101"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -4130,7 +4274,7 @@
       <c r="H102"/>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -4140,7 +4284,7 @@
       <c r="H103"/>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -4150,7 +4294,7 @@
       <c r="H104"/>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -4160,7 +4304,7 @@
       <c r="H105"/>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106"/>
@@ -4176,91 +4320,91 @@
       <c r="T106"/>
       <c r="U106"/>
     </row>
-    <row r="125" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q125" s="34"/>
       <c r="R125" s="34"/>
       <c r="S125" s="34"/>
       <c r="T125" s="34"/>
       <c r="U125" s="34"/>
     </row>
-    <row r="126" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q126" s="34"/>
       <c r="R126" s="34"/>
       <c r="S126" s="34"/>
       <c r="T126" s="34"/>
       <c r="U126" s="34"/>
     </row>
-    <row r="127" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q127" s="34"/>
       <c r="R127" s="34"/>
       <c r="S127" s="34"/>
       <c r="T127" s="34"/>
       <c r="U127" s="34"/>
     </row>
-    <row r="128" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q128" s="34"/>
       <c r="R128" s="34"/>
       <c r="S128" s="34"/>
       <c r="T128" s="34"/>
       <c r="U128" s="34"/>
     </row>
-    <row r="129" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q129" s="34"/>
       <c r="R129" s="34"/>
       <c r="S129" s="34"/>
       <c r="T129" s="34"/>
       <c r="U129" s="34"/>
     </row>
-    <row r="130" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q130" s="34"/>
       <c r="R130" s="34"/>
       <c r="S130" s="34"/>
       <c r="T130" s="34"/>
       <c r="U130" s="34"/>
     </row>
-    <row r="131" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q131" s="34"/>
       <c r="R131" s="34"/>
       <c r="S131" s="34"/>
       <c r="T131" s="34"/>
       <c r="U131" s="34"/>
     </row>
-    <row r="132" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q132" s="34"/>
       <c r="R132" s="34"/>
       <c r="S132" s="34"/>
       <c r="T132" s="34"/>
       <c r="U132" s="34"/>
     </row>
-    <row r="133" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q133" s="34"/>
       <c r="R133" s="34"/>
       <c r="S133" s="34"/>
       <c r="T133" s="34"/>
       <c r="U133" s="34"/>
     </row>
-    <row r="134" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q134" s="34"/>
       <c r="R134" s="34"/>
       <c r="S134" s="34"/>
       <c r="T134" s="34"/>
       <c r="U134" s="34"/>
     </row>
-    <row r="135" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q135" s="34"/>
       <c r="R135" s="34"/>
       <c r="S135" s="34"/>
       <c r="T135" s="34"/>
       <c r="U135" s="34"/>
     </row>
-    <row r="136" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q136" s="34"/>
       <c r="R136" s="34"/>
       <c r="S136" s="34"/>
       <c r="T136" s="34"/>
       <c r="U136" s="34"/>
     </row>
-    <row r="137" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q137" s="34"/>
       <c r="R137" s="34"/>
       <c r="S137" s="34"/>
@@ -4274,32 +4418,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB293B9F-2206-3942-96A4-64B48E167005}">
-  <dimension ref="A1:U69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1050377A-3395-A44E-892F-AB99511D4D32}">
+  <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.25" style="34" customWidth="1"/>
-    <col min="7" max="7" width="3.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="3" customWidth="1"/>
-    <col min="9" max="13" width="16.25" style="3" customWidth="1"/>
-    <col min="14" max="15" width="2.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.19921875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="3.19921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.19921875" style="3" customWidth="1"/>
+    <col min="9" max="13" width="16.19921875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="2.69921875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.69921875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.69921875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" style="3" customWidth="1"/>
     <col min="20" max="21" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4322,7 +4473,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="39">
         <v>44989</v>
       </c>
@@ -4342,7 +4493,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4367,7 +4518,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -4416,29 +4567,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <f>I17</f>
-        <v>-101.054385471565</v>
+        <v>111.1313</v>
       </c>
       <c r="C5" s="10">
         <f>B5</f>
-        <v>-101.054385471565</v>
+        <v>111.1313</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" ref="D5:F5" si="0">C5</f>
-        <v>-101.054385471565</v>
+        <v>111.1313</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>-101.054385471565</v>
+        <v>111.1313</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>-101.054385471565</v>
+        <v>111.1313</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
@@ -4465,17 +4616,17 @@
         <f t="shared" ref="P5" si="1">CONCATENATE(H5,"*",A5)</f>
         <v>C1*x</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="14">
         <f>B5*I5</f>
-        <v>-101.12309735392759</v>
+        <v>111.20686367570559</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ref="R5:U15" si="2">C5*J5</f>
-        <v>1.9903279327919524E-2</v>
+        <v>-2.1887989280754253E-2</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="2"/>
-        <v>3.713972849914518E-2</v>
+        <v>-4.0843218139389202E-2</v>
       </c>
       <c r="T5" s="12">
         <f t="shared" si="2"/>
@@ -4486,29 +4637,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10">
         <f>J17</f>
-        <v>57.552798716728198</v>
+        <v>-45.02675</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:F15" si="3">B6</f>
-        <v>57.552798716728198</v>
+        <v>-45.02675</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="3"/>
-        <v>57.552798716728198</v>
+        <v>-45.02675</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="3"/>
-        <v>57.552798716728198</v>
+        <v>-45.02675</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="3"/>
-        <v>57.552798716728198</v>
+        <v>-45.02675</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
@@ -4535,17 +4686,17 @@
         <f>CONCATENATE(H6,"*",A6)</f>
         <v>C2* y</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="14">
         <f t="shared" ref="Q6:Q15" si="4">B6*I6</f>
-        <v>1.5587814831347423E-3</v>
+        <v>-1.2195213041018779E-3</v>
       </c>
       <c r="R6" s="10">
         <f t="shared" si="2"/>
-        <v>57.586849311065734</v>
+        <v>-45.05338967057682</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="2"/>
-        <v>-3.3386976245090037E-2</v>
+        <v>2.612048529634162E-2</v>
       </c>
       <c r="T6" s="12">
         <f t="shared" si="2"/>
@@ -4556,29 +4707,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="10">
         <f>K17</f>
-        <v>31.6084942036372</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="3"/>
-        <v>31.6084942036372</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="3"/>
-        <v>31.6084942036372</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="3"/>
-        <v>31.6084942036372</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="3"/>
-        <v>31.6084942036372</v>
+        <v>22.084399999999999</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="6" t="s">
@@ -4605,17 +4756,17 @@
         <f>CONCATENATE(H7,"*",A7)</f>
         <v>C3*z</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="14">
         <f t="shared" si="4"/>
-        <v>2.619225938407278E-2</v>
+        <v>1.8300154680416746E-2</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" si="2"/>
-        <v>-3.7795813164737416E-2</v>
+        <v>-2.6407390712059862E-2</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" si="2"/>
-        <v>31.525939628064155</v>
+        <v>22.026720306148096</v>
       </c>
       <c r="T7" s="12">
         <f t="shared" si="2"/>
@@ -4626,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -4674,7 +4825,7 @@
         <f>CONCATENATE(H8,"*",A8)</f>
         <v>C4*1</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="14">
         <f t="shared" si="4"/>
         <v>2.7345691447084701E-2</v>
       </c>
@@ -4695,29 +4846,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10">
         <f>L17</f>
-        <v>5.1717965114696201</v>
+        <v>-4.8567</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="3"/>
-        <v>5.1717965114696201</v>
+        <v>-4.8567</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="3"/>
-        <v>5.1717965114696201</v>
+        <v>-4.8567</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="3"/>
-        <v>5.1717965114696201</v>
+        <v>-4.8567</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="3"/>
-        <v>5.1717965114696201</v>
+        <v>-4.8567</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
@@ -4744,7 +4895,7 @@
         <f t="shared" ref="P9:P15" si="5">CONCATENATE(H9,"*",A9)</f>
         <v>C5*Rx</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4758,36 +4909,36 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" si="2"/>
-        <v>5.1692099934360005</v>
+        <v>-4.8542710679826593</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="2"/>
-        <v>5.5387052014881401E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-5.2012544369081501E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13">
         <f>M17</f>
-        <v>10.381139541482399</v>
+        <v>-10.5982</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="3"/>
-        <v>10.381139541482399</v>
+        <v>-10.5982</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="3"/>
-        <v>10.381139541482399</v>
+        <v>-10.5982</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>10.381139541482399</v>
+        <v>-10.5982</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="3"/>
-        <v>10.381139541482399</v>
+        <v>-10.5982</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="6" t="s">
@@ -4814,7 +4965,7 @@
         <f t="shared" si="5"/>
         <v>C6*Ry</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4828,14 +4979,14 @@
       </c>
       <c r="T10" s="14">
         <f t="shared" si="2"/>
-        <v>-5.865088800033111E-3</v>
+        <v>5.9877226264155124E-3</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="2"/>
-        <v>10.379973183465211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-10.597009254466876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -4883,7 +5034,7 @@
         <f t="shared" si="5"/>
         <v>C7*1</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4904,29 +5055,29 @@
         <v>-7.9510768457993796E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="13">
         <f>B9^2</f>
-        <v>26.74747915604933</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" si="3"/>
-        <v>26.74747915604933</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>26.74747915604933</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>26.74747915604933</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="3"/>
-        <v>26.74747915604933</v>
+        <v>23.587534890000001</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="6" t="s">
@@ -4953,7 +5104,7 @@
         <f t="shared" si="5"/>
         <v>C8*Rx^2</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4967,36 +5118,36 @@
       </c>
       <c r="T12" s="14">
         <f t="shared" si="2"/>
-        <v>1.2953853515020514E-3</v>
+        <v>1.1423486675617843E-3</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="2"/>
-        <v>1.2317266678008793E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.0862106138000611E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="13">
         <f>B10^2</f>
-        <v>107.76805817972941</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" si="3"/>
-        <v>107.76805817972941</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="3"/>
-        <v>107.76805817972941</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="3"/>
-        <v>107.76805817972941</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="3"/>
-        <v>107.76805817972941</v>
+        <v>112.32184324000001</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="6" t="s">
@@ -5023,8 +5174,8 @@
         <f t="shared" si="5"/>
         <v>C9*Ry^2</v>
       </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="4"/>
+      <c r="Q13" s="14">
+        <f>B13*I13</f>
         <v>0</v>
       </c>
       <c r="R13" s="10">
@@ -5037,36 +5188,36 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" si="2"/>
-        <v>-6.3529333404781186E-4</v>
+        <v>-6.621379236445888E-4</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="2"/>
-        <v>-2.7862851521641196E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.9040208144177551E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="13">
         <f>B9^3</f>
-        <v>138.33251938986231</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" si="3"/>
-        <v>138.33251938986231</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="3"/>
-        <v>138.33251938986231</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="3"/>
-        <v>138.33251938986231</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="3"/>
-        <v>138.33251938986231</v>
+        <v>-114.557580700263</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="6" t="s">
@@ -5093,7 +5244,7 @@
         <f t="shared" si="5"/>
         <v>C10*Rx^3</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5107,36 +5258,36 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" si="2"/>
-        <v>1.7337515205334626E-3</v>
+        <v>-1.4357750484393424E-3</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="2"/>
-        <v>-1.9516230437809133E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.6162014204651972E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="13">
         <f>B10^3</f>
-        <v>1118.7552500783647</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" si="3"/>
-        <v>1118.7552500783647</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="3"/>
-        <v>1118.7552500783647</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="3"/>
-        <v>1118.7552500783647</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="3"/>
-        <v>1118.7552500783647</v>
+        <v>-1190.4093590261682</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="6" t="s">
@@ -5163,7 +5314,7 @@
         <f t="shared" si="5"/>
         <v>C11*Ry^3</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5177,14 +5328,14 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" si="2"/>
-        <v>-3.5601513995565638E-4</v>
+        <v>3.7881722077151244E-4</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="2"/>
-        <v>1.5126516169875206E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.609534026036419E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5227,7 +5378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5238,48 +5389,48 @@
       <c r="H17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="18">
-        <v>-101.054385471565</v>
-      </c>
-      <c r="J17" s="18">
-        <v>57.552798716728198</v>
-      </c>
-      <c r="K17" s="18">
-        <v>31.6084942036372</v>
-      </c>
-      <c r="L17" s="19">
-        <v>5.1717965114696201</v>
-      </c>
-      <c r="M17" s="19">
-        <v>10.381139541482399</v>
+      <c r="I17" s="41">
+        <v>111.1313</v>
+      </c>
+      <c r="J17" s="41">
+        <v>-45.02675</v>
+      </c>
+      <c r="K17" s="41">
+        <v>22.084399999999999</v>
+      </c>
+      <c r="L17" s="41">
+        <v>-4.8567</v>
+      </c>
+      <c r="M17" s="41">
+        <v>-10.5982</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="1"/>
       <c r="P17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="40">
         <f>SUM(Q5:Q15)</f>
-        <v>-101.06800062161329</v>
+        <v>111.25129000052898</v>
       </c>
       <c r="R17" s="21">
         <f t="shared" ref="R17:U17" si="6">SUM(R5:R15)</f>
-        <v>57.533001366332968</v>
+        <v>-45.137640461465587</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="6"/>
-        <v>31.476995744993175</v>
+        <v>21.959300937980014</v>
       </c>
       <c r="T17" s="22">
         <f t="shared" si="6"/>
-        <v>5.1632723622411341</v>
+        <v>-4.8509704632328585</v>
       </c>
       <c r="U17" s="22">
         <f t="shared" si="6"/>
-        <v>10.385230907707911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-10.602203140661578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5290,25 +5441,25 @@
       <c r="H18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="43">
         <f>Q17</f>
-        <v>-101.06800062161329</v>
-      </c>
-      <c r="J18" s="23">
+        <v>111.25129000052898</v>
+      </c>
+      <c r="J18" s="43">
         <f>R17</f>
-        <v>57.533001366332968</v>
-      </c>
-      <c r="K18" s="23">
+        <v>-45.137640461465587</v>
+      </c>
+      <c r="K18" s="43">
         <f>S17</f>
-        <v>31.476995744993175</v>
-      </c>
-      <c r="L18" s="24">
+        <v>21.959300937980014</v>
+      </c>
+      <c r="L18" s="43">
         <f>T17</f>
-        <v>5.1632723622411341</v>
-      </c>
-      <c r="M18" s="24">
+        <v>-4.8509704632328585</v>
+      </c>
+      <c r="M18" s="43">
         <f>U17</f>
-        <v>10.385230907707911</v>
+        <v>-10.602203140661578</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -5319,7 +5470,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5342,7 +5493,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5367,7 +5518,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -5416,29 +5567,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="10">
         <f>I34</f>
-        <v>-101.06843049300777</v>
+        <v>1.3450016875620363</v>
       </c>
       <c r="C22" s="10">
         <f>B22</f>
-        <v>-101.06843049300777</v>
+        <v>1.3450016875620363</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" ref="D22:F32" si="7">C22</f>
-        <v>-101.06843049300777</v>
+        <v>1.3450016875620363</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="7"/>
-        <v>-101.06843049300777</v>
+        <v>1.3450016875620363</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="7"/>
-        <v>-101.06843049300777</v>
+        <v>1.3450016875620363</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="6" t="s">
@@ -5467,15 +5618,15 @@
       </c>
       <c r="Q22" s="10">
         <f>B22*I22</f>
-        <v>-100.99972343755665</v>
+        <v>1.344087345614918</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:U32" si="9">C22*J22</f>
-        <v>-1.9925346077438469E-2</v>
+        <v>2.6516315696884624E-4</v>
       </c>
       <c r="S22" s="10">
         <f t="shared" si="9"/>
-        <v>-3.7227537669545507E-2</v>
+        <v>4.9541781489109064E-4</v>
       </c>
       <c r="T22" s="12">
         <f t="shared" si="9"/>
@@ -5486,29 +5637,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="10">
         <f>J34</f>
-        <v>57.532796470187805</v>
+        <v>-0.62400389791519295</v>
       </c>
       <c r="C23" s="10">
         <f t="shared" ref="C23:C32" si="10">B23</f>
-        <v>57.532796470187805</v>
+        <v>-0.62400389791519295</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="7"/>
-        <v>57.532796470187805</v>
+        <v>-0.62400389791519295</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="7"/>
-        <v>57.532796470187805</v>
+        <v>-0.62400389791519295</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="7"/>
-        <v>57.532796470187805</v>
+        <v>-0.62400389791519295</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="6" t="s">
@@ -5537,15 +5688,15 @@
       </c>
       <c r="Q23" s="10">
         <f t="shared" ref="Q23:Q32" si="11">B23*I23</f>
-        <v>-1.583838286110301E-3</v>
+        <v>1.7178397798067612E-5</v>
       </c>
       <c r="R23" s="10">
         <f t="shared" si="9"/>
-        <v>57.498813389756549</v>
+        <v>-0.62363531554212415</v>
       </c>
       <c r="S23" s="10">
         <f t="shared" si="9"/>
-        <v>3.3445642411845534E-2</v>
+        <v>-3.6275329053549101E-4</v>
       </c>
       <c r="T23" s="12">
         <f t="shared" si="9"/>
@@ -5556,29 +5707,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="10">
         <f>K34</f>
-        <v>31.477494415014974</v>
+        <v>0.5790077288547324</v>
       </c>
       <c r="C24" s="10">
         <f t="shared" si="10"/>
-        <v>31.477494415014974</v>
+        <v>0.5790077288547324</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="7"/>
-        <v>31.477494415014974</v>
+        <v>0.5790077288547324</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="7"/>
-        <v>31.477494415014974</v>
+        <v>0.5790077288547324</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="7"/>
-        <v>31.477494415014974</v>
+        <v>0.5790077288547324</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="6" t="s">
@@ -5607,15 +5758,15 @@
       </c>
       <c r="Q24" s="10">
         <f t="shared" si="11"/>
-        <v>-2.6138713372575055E-2</v>
+        <v>-4.8080437615200531E-4</v>
       </c>
       <c r="R24" s="10">
         <f t="shared" si="9"/>
-        <v>3.7719965472383613E-2</v>
+        <v>6.938338627812086E-4</v>
       </c>
       <c r="S24" s="10">
         <f t="shared" si="9"/>
-        <v>31.55991795850203</v>
+        <v>0.58052385552254737</v>
       </c>
       <c r="T24" s="12">
         <f t="shared" si="9"/>
@@ -5626,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -5695,29 +5846,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="10">
         <f>L34</f>
-        <v>5.1632717274844762</v>
+        <v>-7.4840644153363972E-2</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="10"/>
-        <v>5.1632717274844762</v>
+        <v>-7.4840644153363972E-2</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="7"/>
-        <v>5.1632717274844762</v>
+        <v>-7.4840644153363972E-2</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="7"/>
-        <v>5.1632717274844762</v>
+        <v>-7.4840644153363972E-2</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="7"/>
-        <v>5.1632717274844762</v>
+        <v>-7.4840644153363972E-2</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="6" t="s">
@@ -5758,36 +5909,36 @@
       </c>
       <c r="T26" s="12">
         <f t="shared" si="9"/>
-        <v>5.1658453818806347</v>
+        <v>-7.487794878558221E-2</v>
       </c>
       <c r="U26" s="12">
         <f t="shared" si="9"/>
-        <v>-5.5434608353013212E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.0351413144591919E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="13">
         <f>M34</f>
-        <v>10.385234006247925</v>
+        <v>8.7878246101070166E-3</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="10"/>
-        <v>10.385234006247925</v>
+        <v>8.7878246101070166E-3</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="7"/>
-        <v>10.385234006247925</v>
+        <v>8.7878246101070166E-3</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="7"/>
-        <v>10.385234006247925</v>
+        <v>8.7878246101070166E-3</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="7"/>
-        <v>10.385234006247925</v>
+        <v>8.7878246101070166E-3</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="6" t="s">
@@ -5828,14 +5979,14 @@
       </c>
       <c r="T27" s="12">
         <f t="shared" si="9"/>
-        <v>5.8706888681295567E-3</v>
+        <v>4.9676862440068749E-6</v>
       </c>
       <c r="U27" s="12">
         <f t="shared" si="9"/>
-        <v>10.38639622833478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.7888080644857175E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>1</v>
       </c>
@@ -5904,29 +6055,29 @@
         <v>7.9062110923943405E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="13">
         <f>B26^2</f>
-        <v>26.659374931840528</v>
+        <v>5.601122017290453E-3</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="10"/>
-        <v>26.659374931840528</v>
+        <v>5.601122017290453E-3</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="7"/>
-        <v>26.659374931840528</v>
+        <v>5.601122017290453E-3</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="7"/>
-        <v>26.659374931840528</v>
+        <v>5.601122017290453E-3</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="7"/>
-        <v>26.659374931840528</v>
+        <v>5.601122017290453E-3</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="6" t="s">
@@ -5967,36 +6118,36 @@
       </c>
       <c r="T29" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2835381714637545E-3</v>
+        <v>-2.6967076049603489E-7</v>
       </c>
       <c r="U29" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2255845508126746E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.5749473230931359E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="13">
         <f>B27^2</f>
-        <v>107.85308536452834</v>
+        <v>7.7225861378002543E-5</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="10"/>
-        <v>107.85308536452834</v>
+        <v>7.7225861378002543E-5</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="7"/>
-        <v>107.85308536452834</v>
+        <v>7.7225861378002543E-5</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="7"/>
-        <v>107.85308536452834</v>
+        <v>7.7225861378002543E-5</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="7"/>
-        <v>107.85308536452834</v>
+        <v>7.7225861378002543E-5</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="6" t="s">
@@ -6037,36 +6188,36 @@
       </c>
       <c r="T30" s="12">
         <f t="shared" si="9"/>
-        <v>6.267446108840772E-4</v>
+        <v>4.4876687835081992E-10</v>
       </c>
       <c r="U30" s="12">
         <f t="shared" si="9"/>
-        <v>2.7935198487925584E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.0002392687275367E-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="13">
         <f>B26^3</f>
-        <v>137.64959685798058</v>
+        <v>-4.1919157975560693E-4</v>
       </c>
       <c r="C31" s="10">
         <f t="shared" si="10"/>
-        <v>137.64959685798058</v>
+        <v>-4.1919157975560693E-4</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="7"/>
-        <v>137.64959685798058</v>
+        <v>-4.1919157975560693E-4</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" si="7"/>
-        <v>137.64959685798058</v>
+        <v>-4.1919157975560693E-4</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" si="7"/>
-        <v>137.64959685798058</v>
+        <v>-4.1919157975560693E-4</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="6" t="s">
@@ -6107,36 +6258,36 @@
       </c>
       <c r="T31" s="12">
         <f t="shared" si="9"/>
-        <v>-1.7241539197099013E-3</v>
+        <v>5.2506568986955378E-9</v>
       </c>
       <c r="U31" s="12">
         <f t="shared" si="9"/>
-        <v>1.9563473730777846E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-5.9577678728498345E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="13">
         <f>B27^3</f>
-        <v>1120.0795298064602</v>
+        <v>6.7864732515432368E-7</v>
       </c>
       <c r="C32" s="10">
         <f t="shared" si="10"/>
-        <v>1120.0795298064602</v>
+        <v>6.7864732515432368E-7</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="7"/>
-        <v>1120.0795298064602</v>
+        <v>6.7864732515432368E-7</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="7"/>
-        <v>1120.0795298064602</v>
+        <v>6.7864732515432368E-7</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="7"/>
-        <v>1120.0795298064602</v>
+        <v>6.7864732515432368E-7</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="6" t="s">
@@ -6177,14 +6328,14 @@
       </c>
       <c r="T32" s="12">
         <f t="shared" si="9"/>
-        <v>3.5197296215509977E-4</v>
+        <v>2.1325763299546801E-13</v>
       </c>
       <c r="U32" s="12">
         <f t="shared" si="9"/>
-        <v>-1.5099574802347783E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-9.1487129064411962E-13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6229,7 +6380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6240,20 +6391,20 @@
       <c r="H34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="28">
-        <v>-101.06843049300777</v>
-      </c>
-      <c r="J34" s="28">
-        <v>57.532796470187805</v>
-      </c>
-      <c r="K34" s="28">
-        <v>31.477494415014974</v>
-      </c>
-      <c r="L34" s="29">
-        <v>5.1632717274844762</v>
-      </c>
-      <c r="M34" s="29">
-        <v>10.385234006247925</v>
+      <c r="I34" s="42">
+        <v>1.3450016875620363</v>
+      </c>
+      <c r="J34" s="42">
+        <v>-0.62400389791519295</v>
+      </c>
+      <c r="K34" s="42">
+        <v>0.5790077288547324</v>
+      </c>
+      <c r="L34" s="42">
+        <v>-7.4840644153363972E-2</v>
+      </c>
+      <c r="M34" s="42">
+        <v>8.7878246101070166E-3</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="1"/>
@@ -6262,26 +6413,26 @@
       </c>
       <c r="Q34" s="30">
         <f>SUM(Q22:Q32)</f>
-        <v>-101.05481607687639</v>
+        <v>1.3162536319755129</v>
       </c>
       <c r="R34" s="30">
         <f t="shared" ref="R34:U34" si="12">SUM(R22:R32)</f>
-        <v>57.552595814730211</v>
+        <v>-0.58668851294366131</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="12"/>
-        <v>31.608989636387317</v>
+        <v>0.63351009318988871</v>
       </c>
       <c r="T34" s="31">
         <f t="shared" si="12"/>
-        <v>5.1717982403813298</v>
+        <v>-7.2762100919761263E-2</v>
       </c>
       <c r="U34" s="31">
         <f t="shared" si="12"/>
-        <v>10.381143545935627</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+        <v>9.6595173334786174E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6292,25 +6443,25 @@
       <c r="H35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="44">
         <f>Q34</f>
-        <v>-101.05481607687639</v>
-      </c>
-      <c r="J35" s="32">
+        <v>1.3162536319755129</v>
+      </c>
+      <c r="J35" s="44">
         <f>R34</f>
-        <v>57.552595814730211</v>
-      </c>
-      <c r="K35" s="32">
+        <v>-0.58668851294366131</v>
+      </c>
+      <c r="K35" s="44">
         <f>S34</f>
-        <v>31.608989636387317</v>
-      </c>
-      <c r="L35" s="33">
+        <v>0.63351009318988871</v>
+      </c>
+      <c r="L35" s="44">
         <f>T34</f>
-        <v>5.1717982403813298</v>
-      </c>
-      <c r="M35" s="33">
+        <v>-7.2762100919761263E-2</v>
+      </c>
+      <c r="M35" s="44">
         <f>U34</f>
-        <v>10.381143545935627</v>
+        <v>9.6595173334786174E-3</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -6321,7 +6472,3107 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+    </row>
+    <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+    </row>
+    <row r="46" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G47" s="35"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G48" s="35"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+    </row>
+    <row r="49" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G49" s="35"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+    </row>
+    <row r="50" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G50" s="35"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+    </row>
+    <row r="51" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G51" s="35"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+    </row>
+    <row r="52" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+    </row>
+    <row r="53" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+    </row>
+    <row r="54" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+    </row>
+    <row r="55" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+    </row>
+    <row r="56" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+    </row>
+    <row r="57" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+    </row>
+    <row r="58" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+    </row>
+    <row r="59" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+    </row>
+    <row r="60" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+    </row>
+    <row r="61" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+    </row>
+    <row r="62" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+    </row>
+    <row r="63" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+    </row>
+    <row r="64" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+    </row>
+    <row r="77" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+    </row>
+    <row r="80" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="H101"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="H102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="H104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+    </row>
+    <row r="125" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q125" s="34"/>
+      <c r="R125" s="34"/>
+      <c r="S125" s="34"/>
+      <c r="T125" s="34"/>
+      <c r="U125" s="34"/>
+    </row>
+    <row r="126" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q126" s="34"/>
+      <c r="R126" s="34"/>
+      <c r="S126" s="34"/>
+      <c r="T126" s="34"/>
+      <c r="U126" s="34"/>
+    </row>
+    <row r="127" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q127" s="34"/>
+      <c r="R127" s="34"/>
+      <c r="S127" s="34"/>
+      <c r="T127" s="34"/>
+      <c r="U127" s="34"/>
+    </row>
+    <row r="128" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q128" s="34"/>
+      <c r="R128" s="34"/>
+      <c r="S128" s="34"/>
+      <c r="T128" s="34"/>
+      <c r="U128" s="34"/>
+    </row>
+    <row r="129" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q129" s="34"/>
+      <c r="R129" s="34"/>
+      <c r="S129" s="34"/>
+      <c r="T129" s="34"/>
+      <c r="U129" s="34"/>
+    </row>
+    <row r="130" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q130" s="34"/>
+      <c r="R130" s="34"/>
+      <c r="S130" s="34"/>
+      <c r="T130" s="34"/>
+      <c r="U130" s="34"/>
+    </row>
+    <row r="131" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q131" s="34"/>
+      <c r="R131" s="34"/>
+      <c r="S131" s="34"/>
+      <c r="T131" s="34"/>
+      <c r="U131" s="34"/>
+    </row>
+    <row r="132" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q132" s="34"/>
+      <c r="R132" s="34"/>
+      <c r="S132" s="34"/>
+      <c r="T132" s="34"/>
+      <c r="U132" s="34"/>
+    </row>
+    <row r="133" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q133" s="34"/>
+      <c r="R133" s="34"/>
+      <c r="S133" s="34"/>
+      <c r="T133" s="34"/>
+      <c r="U133" s="34"/>
+    </row>
+    <row r="134" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q134" s="34"/>
+      <c r="R134" s="34"/>
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
+      <c r="U134" s="34"/>
+    </row>
+    <row r="135" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q135" s="34"/>
+      <c r="R135" s="34"/>
+      <c r="S135" s="34"/>
+      <c r="T135" s="34"/>
+      <c r="U135" s="34"/>
+    </row>
+    <row r="136" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q136" s="34"/>
+      <c r="R136" s="34"/>
+      <c r="S136" s="34"/>
+      <c r="T136" s="34"/>
+      <c r="U136" s="34"/>
+    </row>
+    <row r="137" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q137" s="34"/>
+      <c r="R137" s="34"/>
+      <c r="S137" s="34"/>
+      <c r="T137" s="34"/>
+      <c r="U137" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB293B9F-2206-3942-96A4-64B48E167005}">
+  <dimension ref="A1:U69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.19921875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="3.19921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.19921875" style="3" customWidth="1"/>
+    <col min="9" max="13" width="16.19921875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="2.69921875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.69921875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.69921875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" style="3" customWidth="1"/>
+    <col min="20" max="21" width="10" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>44989</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10">
+        <f>I17</f>
+        <v>-101.054385471565</v>
+      </c>
+      <c r="C5" s="10">
+        <f>B5</f>
+        <v>-101.054385471565</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" ref="D5:F5" si="0">C5</f>
+        <v>-101.054385471565</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>-101.054385471565</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>-101.054385471565</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.00067994953452</v>
+      </c>
+      <c r="J5" s="11">
+        <v>-1.96956116600402E-4</v>
+      </c>
+      <c r="K5" s="11">
+        <v>-3.6752218447358399E-4</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="6" t="str">
+        <f t="shared" ref="P5" si="1">CONCATENATE(H5,"*",A5)</f>
+        <v>C1*x</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>B5*I5</f>
+        <v>-101.12309735392759</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" ref="R5:U15" si="2">C5*J5</f>
+        <v>1.9903279327919524E-2</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="2"/>
+        <v>3.713972849914518E-2</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10">
+        <f>J17</f>
+        <v>57.552798716728198</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" ref="C6:F15" si="3">B6</f>
+        <v>57.552798716728198</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="3"/>
+        <v>57.552798716728198</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="3"/>
+        <v>57.552798716728198</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="3"/>
+        <v>57.552798716728198</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2.7084373269265002E-5</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1.0005916409817901</v>
+      </c>
+      <c r="K6" s="11">
+        <v>-5.80110385411819E-4</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="6" t="str">
+        <f>CONCATENATE(H6,"*",A6)</f>
+        <v>C2* y</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" ref="Q6:Q15" si="4">B6*I6</f>
+        <v>1.5587814831347423E-3</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="2"/>
+        <v>57.586849311065734</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.3386976245090037E-2</v>
+      </c>
+      <c r="T6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <f>K17</f>
+        <v>31.6084942036372</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="3"/>
+        <v>31.6084942036372</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="3"/>
+        <v>31.6084942036372</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="3"/>
+        <v>31.6084942036372</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="3"/>
+        <v>31.6084942036372</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="11">
+        <v>8.2864622450312198E-4</v>
+      </c>
+      <c r="J7" s="11">
+        <v>-1.19574861495263E-3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.99738821548912804</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="6" t="str">
+        <f>CONCATENATE(H7,"*",A7)</f>
+        <v>C3*z</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="4"/>
+        <v>2.619225938407278E-2</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.7795813164737416E-2</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="2"/>
+        <v>31.525939628064155</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2.7345691447084701E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>-3.59554108959537E-2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>-5.2696635325035997E-2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="6" t="str">
+        <f>CONCATENATE(H8,"*",A8)</f>
+        <v>C4*1</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="4"/>
+        <v>2.7345691447084701E-2</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.59554108959537E-2</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="2"/>
+        <v>-5.2696635325035997E-2</v>
+      </c>
+      <c r="T8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <f>L17</f>
+        <v>5.1717965114696201</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" si="3"/>
+        <v>5.1717965114696201</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="3"/>
+        <v>5.1717965114696201</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="3"/>
+        <v>5.1717965114696201</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="3"/>
+        <v>5.1717965114696201</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.999499880161974</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1.0709441466238701E-3</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="6" t="str">
+        <f t="shared" ref="P9:P15" si="5">CONCATENATE(H9,"*",A9)</f>
+        <v>C5*Rx</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="2"/>
+        <v>5.1692099934360005</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" si="2"/>
+        <v>5.5387052014881401E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <f>M17</f>
+        <v>10.381139541482399</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="3"/>
+        <v>10.381139541482399</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="3"/>
+        <v>10.381139541482399</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="3"/>
+        <v>10.381139541482399</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="3"/>
+        <v>10.381139541482399</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>-5.6497543228241701E-4</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.99988764643683603</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>C6*Ry</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="2"/>
+        <v>-5.865088800033111E-3</v>
+      </c>
+      <c r="U10" s="14">
+        <f t="shared" si="2"/>
+        <v>10.379973183465211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>-2.1103707928646601E-3</v>
+      </c>
+      <c r="M11" s="11">
+        <v>-7.9510768457993796E-4</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>C7*1</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="2"/>
+        <v>-2.1103707928646601E-3</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="2"/>
+        <v>-7.9510768457993796E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13">
+        <f>B9^2</f>
+        <v>26.74747915604933</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="3"/>
+        <v>26.74747915604933</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>26.74747915604933</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="3"/>
+        <v>26.74747915604933</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>26.74747915604933</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>4.8430184539804799E-5</v>
+      </c>
+      <c r="M12" s="11">
+        <v>4.6050196379807497E-5</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>C8*Rx^2</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="2"/>
+        <v>1.2953853515020514E-3</v>
+      </c>
+      <c r="U12" s="14">
+        <f t="shared" si="2"/>
+        <v>1.2317266678008793E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13">
+        <f>B10^2</f>
+        <v>107.76805817972941</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="3"/>
+        <v>107.76805817972941</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="3"/>
+        <v>107.76805817972941</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="3"/>
+        <v>107.76805817972941</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="3"/>
+        <v>107.76805817972941</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-5.8950058558938299E-6</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-2.5854461880693001E-6</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>C9*Ry^2</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="2"/>
+        <v>-6.3529333404781186E-4</v>
+      </c>
+      <c r="U13" s="14">
+        <f t="shared" si="2"/>
+        <v>-2.7862851521641196E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="13">
+        <f>B9^3</f>
+        <v>138.33251938986231</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="3"/>
+        <v>138.33251938986231</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="3"/>
+        <v>138.33251938986231</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="3"/>
+        <v>138.33251938986231</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="3"/>
+        <v>138.33251938986231</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.25332172664855E-5</v>
+      </c>
+      <c r="M14" s="11">
+        <v>-1.4108201400428899E-5</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>C10*Rx^3</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="2"/>
+        <v>1.7337515205334626E-3</v>
+      </c>
+      <c r="U14" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.9516230437809133E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="13">
+        <f>B10^3</f>
+        <v>1118.7552500783647</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="3"/>
+        <v>1118.7552500783647</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="3"/>
+        <v>1118.7552500783647</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="3"/>
+        <v>1118.7552500783647</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="3"/>
+        <v>1118.7552500783647</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>-3.1822433005853499E-7</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1.3520844857546499E-6</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>C11*Ry^3</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="2"/>
+        <v>-3.5601513995565638E-4</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5126516169875206E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="18">
+        <v>-101.054385471565</v>
+      </c>
+      <c r="J17" s="18">
+        <v>57.552798716728198</v>
+      </c>
+      <c r="K17" s="18">
+        <v>31.6084942036372</v>
+      </c>
+      <c r="L17" s="19">
+        <v>5.1717965114696201</v>
+      </c>
+      <c r="M17" s="19">
+        <v>10.381139541482399</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="21">
+        <f>SUM(Q5:Q15)</f>
+        <v>-101.06800062161329</v>
+      </c>
+      <c r="R17" s="21">
+        <f t="shared" ref="R17:U17" si="6">SUM(R5:R15)</f>
+        <v>57.533001366332968</v>
+      </c>
+      <c r="S17" s="21">
+        <f t="shared" si="6"/>
+        <v>31.476995744993175</v>
+      </c>
+      <c r="T17" s="22">
+        <f t="shared" si="6"/>
+        <v>5.1632723622411341</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="6"/>
+        <v>10.385230907707911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="23">
+        <f>Q17</f>
+        <v>-101.06800062161329</v>
+      </c>
+      <c r="J18" s="23">
+        <f>R17</f>
+        <v>57.533001366332968</v>
+      </c>
+      <c r="K18" s="23">
+        <f>S17</f>
+        <v>31.476995744993175</v>
+      </c>
+      <c r="L18" s="24">
+        <f>T17</f>
+        <v>5.1632723622411341</v>
+      </c>
+      <c r="M18" s="24">
+        <f>U17</f>
+        <v>10.385230907707911</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0.99929603630465502</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1.26256116565955E-3</v>
+      </c>
+      <c r="K21" s="26">
+        <v>1.5080928034595799E-4</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10">
+        <f>I34</f>
+        <v>-101.06843049300777</v>
+      </c>
+      <c r="C22" s="10">
+        <f>B22</f>
+        <v>-101.06843049300777</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:F32" si="7">C22</f>
+        <v>-101.06843049300777</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="7"/>
+        <v>-101.06843049300777</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="7"/>
+        <v>-101.06843049300777</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="27">
+        <v>0.99932019271382799</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1.9714708124231699E-4</v>
+      </c>
+      <c r="K22" s="27">
+        <v>3.6833992066514799E-4</v>
+      </c>
+      <c r="L22" s="27">
+        <v>0</v>
+      </c>
+      <c r="M22" s="27">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="6" t="str">
+        <f t="shared" ref="P22:P32" si="8">CONCATENATE(H22,"*",A22)</f>
+        <v>C1*x</v>
+      </c>
+      <c r="Q22" s="10">
+        <f>B22*I22</f>
+        <v>-100.99972343755665</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" ref="R22:U32" si="9">C22*J22</f>
+        <v>-1.9925346077438469E-2</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="9"/>
+        <v>-3.7227537669545507E-2</v>
+      </c>
+      <c r="T22" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10">
+        <f>J34</f>
+        <v>57.532796470187805</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23:C32" si="10">B23</f>
+        <v>57.532796470187805</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="7"/>
+        <v>57.532796470187805</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="7"/>
+        <v>57.532796470187805</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="7"/>
+        <v>57.532796470187805</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="27">
+        <v>-2.75293116845278E-5</v>
+      </c>
+      <c r="J23" s="27">
+        <v>0.99940932680981598</v>
+      </c>
+      <c r="K23" s="27">
+        <v>5.8133177011787196E-4</v>
+      </c>
+      <c r="L23" s="27">
+        <v>0</v>
+      </c>
+      <c r="M23" s="27">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C2* y</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" ref="Q23:Q32" si="11">B23*I23</f>
+        <v>-1.583838286110301E-3</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="9"/>
+        <v>57.498813389756549</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" si="9"/>
+        <v>3.3445642411845534E-2</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10">
+        <f>K34</f>
+        <v>31.477494415014974</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="10"/>
+        <v>31.477494415014974</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="7"/>
+        <v>31.477494415014974</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="7"/>
+        <v>31.477494415014974</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="7"/>
+        <v>31.477494415014974</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="27">
+        <v>-8.3039371012029201E-4</v>
+      </c>
+      <c r="J24" s="27">
+        <v>1.1983153733605601E-3</v>
+      </c>
+      <c r="K24" s="27">
+        <v>1.00261849124331</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C3*z</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="11"/>
+        <v>-2.6138713372575055E-2</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="9"/>
+        <v>3.7719965472383613E-2</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="9"/>
+        <v>31.55991795850203</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="27">
+        <v>-2.7370087661051101E-2</v>
+      </c>
+      <c r="J25" s="27">
+        <v>3.59878055787127E-2</v>
+      </c>
+      <c r="K25" s="27">
+        <v>5.2853573142985798E-2</v>
+      </c>
+      <c r="L25" s="27">
+        <v>0</v>
+      </c>
+      <c r="M25" s="27">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C4*1</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" si="11"/>
+        <v>-2.7370087661051101E-2</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="9"/>
+        <v>3.59878055787127E-2</v>
+      </c>
+      <c r="S25" s="10">
+        <f t="shared" si="9"/>
+        <v>5.2853573142985798E-2</v>
+      </c>
+      <c r="T25" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="10">
+        <f>L34</f>
+        <v>5.1632717274844762</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="10"/>
+        <v>5.1632717274844762</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="7"/>
+        <v>5.1632717274844762</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="7"/>
+        <v>5.1632717274844762</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="7"/>
+        <v>5.1632717274844762</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0</v>
+      </c>
+      <c r="K26" s="27">
+        <v>0</v>
+      </c>
+      <c r="L26" s="27">
+        <v>1.00049845418409</v>
+      </c>
+      <c r="M26" s="27">
+        <v>-1.0736333719941699E-3</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C5*Rx</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="12">
+        <f t="shared" si="9"/>
+        <v>5.1658453818806347</v>
+      </c>
+      <c r="U26" s="12">
+        <f t="shared" si="9"/>
+        <v>-5.5434608353013212E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="13">
+        <f>M34</f>
+        <v>10.385234006247925</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="10"/>
+        <v>10.385234006247925</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="7"/>
+        <v>10.385234006247925</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="7"/>
+        <v>10.385234006247925</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="7"/>
+        <v>10.385234006247925</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="27">
+        <v>5.6529191971963801E-4</v>
+      </c>
+      <c r="M27" s="27">
+        <v>1.0001119110157899</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C6*Ry</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="12">
+        <f t="shared" si="9"/>
+        <v>5.8706888681295567E-3</v>
+      </c>
+      <c r="U27" s="12">
+        <f t="shared" si="9"/>
+        <v>10.38639622833478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
+        <v>0</v>
+      </c>
+      <c r="K28" s="27">
+        <v>0</v>
+      </c>
+      <c r="L28" s="27">
+        <v>2.1111441507004002E-3</v>
+      </c>
+      <c r="M28" s="27">
+        <v>7.9062110923943405E-4</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C7*1</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" si="9"/>
+        <v>2.1111441507004002E-3</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" si="9"/>
+        <v>7.9062110923943405E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="13">
+        <f>B26^2</f>
+        <v>26.659374931840528</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="10"/>
+        <v>26.659374931840528</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="7"/>
+        <v>26.659374931840528</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="7"/>
+        <v>26.659374931840528</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="7"/>
+        <v>26.659374931840528</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="27">
+        <v>0</v>
+      </c>
+      <c r="J29" s="27">
+        <v>0</v>
+      </c>
+      <c r="K29" s="27">
+        <v>0</v>
+      </c>
+      <c r="L29" s="27">
+        <v>-4.8145846432834603E-5</v>
+      </c>
+      <c r="M29" s="27">
+        <v>-4.5971991239333301E-5</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C8*Rx^2</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <f t="shared" si="9"/>
+        <v>-1.2835381714637545E-3</v>
+      </c>
+      <c r="U29" s="12">
+        <f t="shared" si="9"/>
+        <v>-1.2255845508126746E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="13">
+        <f>B27^2</f>
+        <v>107.85308536452834</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="10"/>
+        <v>107.85308536452834</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="7"/>
+        <v>107.85308536452834</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="7"/>
+        <v>107.85308536452834</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="7"/>
+        <v>107.85308536452834</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0</v>
+      </c>
+      <c r="K30" s="27">
+        <v>0</v>
+      </c>
+      <c r="L30" s="27">
+        <v>5.8110957954125104E-6</v>
+      </c>
+      <c r="M30" s="27">
+        <v>2.5901158407762302E-6</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C9*Ry^2</v>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <f t="shared" si="9"/>
+        <v>6.267446108840772E-4</v>
+      </c>
+      <c r="U30" s="12">
+        <f t="shared" si="9"/>
+        <v>2.7935198487925584E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="13">
+        <f>B26^3</f>
+        <v>137.64959685798058</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" si="10"/>
+        <v>137.64959685798058</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="7"/>
+        <v>137.64959685798058</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="7"/>
+        <v>137.64959685798058</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="7"/>
+        <v>137.64959685798058</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
+        <v>0</v>
+      </c>
+      <c r="K31" s="27">
+        <v>0</v>
+      </c>
+      <c r="L31" s="27">
+        <v>-1.2525673587615299E-5</v>
+      </c>
+      <c r="M31" s="27">
+        <v>1.4212518000297801E-5</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C10*Rx^3</v>
+      </c>
+      <c r="Q31" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <f t="shared" si="9"/>
+        <v>-1.7241539197099013E-3</v>
+      </c>
+      <c r="U31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.9563473730777846E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="13">
+        <f>B27^3</f>
+        <v>1120.0795298064602</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" si="10"/>
+        <v>1120.0795298064602</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="7"/>
+        <v>1120.0795298064602</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="7"/>
+        <v>1120.0795298064602</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="7"/>
+        <v>1120.0795298064602</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0</v>
+      </c>
+      <c r="K32" s="27">
+        <v>0</v>
+      </c>
+      <c r="L32" s="27">
+        <v>3.14239259613929E-7</v>
+      </c>
+      <c r="M32" s="27">
+        <v>-1.34808059611239E-6</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>C11*Ry^3</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="12">
+        <f t="shared" si="9"/>
+        <v>3.5197296215509977E-4</v>
+      </c>
+      <c r="U32" s="12">
+        <f t="shared" si="9"/>
+        <v>-1.5099574802347783E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="28">
+        <v>-101.06843049300777</v>
+      </c>
+      <c r="J34" s="28">
+        <v>57.532796470187805</v>
+      </c>
+      <c r="K34" s="28">
+        <v>31.477494415014974</v>
+      </c>
+      <c r="L34" s="29">
+        <v>5.1632717274844762</v>
+      </c>
+      <c r="M34" s="29">
+        <v>10.385234006247925</v>
+      </c>
+      <c r="N34" s="20"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="30">
+        <f>SUM(Q22:Q32)</f>
+        <v>-101.05481607687639</v>
+      </c>
+      <c r="R34" s="30">
+        <f t="shared" ref="R34:U34" si="12">SUM(R22:R32)</f>
+        <v>57.552595814730211</v>
+      </c>
+      <c r="S34" s="30">
+        <f t="shared" si="12"/>
+        <v>31.608989636387317</v>
+      </c>
+      <c r="T34" s="31">
+        <f t="shared" si="12"/>
+        <v>5.1717982403813298</v>
+      </c>
+      <c r="U34" s="31">
+        <f t="shared" si="12"/>
+        <v>10.381143545935627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="32">
+        <f>Q34</f>
+        <v>-101.05481607687639</v>
+      </c>
+      <c r="J35" s="32">
+        <f>R34</f>
+        <v>57.552595814730211</v>
+      </c>
+      <c r="K35" s="32">
+        <f>S34</f>
+        <v>31.608989636387317</v>
+      </c>
+      <c r="L35" s="33">
+        <f>T34</f>
+        <v>5.1717982403813298</v>
+      </c>
+      <c r="M35" s="33">
+        <f>U34</f>
+        <v>10.381143545935627</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6344,7 +9595,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6367,91 +9618,91 @@
       <c r="T37" s="34"/>
       <c r="U37" s="34"/>
     </row>
-    <row r="57" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q57" s="34"/>
       <c r="R57" s="34"/>
       <c r="S57" s="34"/>
       <c r="T57" s="34"/>
       <c r="U57" s="34"/>
     </row>
-    <row r="58" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
       <c r="S58" s="34"/>
       <c r="T58" s="34"/>
       <c r="U58" s="34"/>
     </row>
-    <row r="59" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q59" s="34"/>
       <c r="R59" s="34"/>
       <c r="S59" s="34"/>
       <c r="T59" s="34"/>
       <c r="U59" s="34"/>
     </row>
-    <row r="60" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q60" s="34"/>
       <c r="R60" s="34"/>
       <c r="S60" s="34"/>
       <c r="T60" s="34"/>
       <c r="U60" s="34"/>
     </row>
-    <row r="61" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q61" s="34"/>
       <c r="R61" s="34"/>
       <c r="S61" s="34"/>
       <c r="T61" s="34"/>
       <c r="U61" s="34"/>
     </row>
-    <row r="62" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q62" s="34"/>
       <c r="R62" s="34"/>
       <c r="S62" s="34"/>
       <c r="T62" s="34"/>
       <c r="U62" s="34"/>
     </row>
-    <row r="63" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q63" s="34"/>
       <c r="R63" s="34"/>
       <c r="S63" s="34"/>
       <c r="T63" s="34"/>
       <c r="U63" s="34"/>
     </row>
-    <row r="64" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q64" s="34"/>
       <c r="R64" s="34"/>
       <c r="S64" s="34"/>
       <c r="T64" s="34"/>
       <c r="U64" s="34"/>
     </row>
-    <row r="65" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q65" s="34"/>
       <c r="R65" s="34"/>
       <c r="S65" s="34"/>
       <c r="T65" s="34"/>
       <c r="U65" s="34"/>
     </row>
-    <row r="66" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q66" s="34"/>
       <c r="R66" s="34"/>
       <c r="S66" s="34"/>
       <c r="T66" s="34"/>
       <c r="U66" s="34"/>
     </row>
-    <row r="67" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q67" s="34"/>
       <c r="R67" s="34"/>
       <c r="S67" s="34"/>
       <c r="T67" s="34"/>
       <c r="U67" s="34"/>
     </row>
-    <row r="68" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q68" s="34"/>
       <c r="R68" s="34"/>
       <c r="S68" s="34"/>
       <c r="T68" s="34"/>
       <c r="U68" s="34"/>
     </row>
-    <row r="69" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="17:21" x14ac:dyDescent="0.3">
       <c r="Q69" s="34"/>
       <c r="R69" s="34"/>
       <c r="S69" s="34"/>
